--- a/target/test-classes/data/ContactListTestData.xlsx
+++ b/target/test-classes/data/ContactListTestData.xlsx
@@ -56,9 +56,6 @@
     <t>Contact List</t>
   </si>
   <si>
-    <t>DummyTest2</t>
-  </si>
-  <si>
     <t>DummyTestgmail.com</t>
   </si>
   <si>
@@ -74,10 +71,13 @@
     <t>User validation failed: email: Email is invalid</t>
   </si>
   <si>
-    <t>DummyTest677</t>
-  </si>
-  <si>
-    <t>DummyvTestUser88390@gmail.com</t>
+    <t>DummyTest678</t>
+  </si>
+  <si>
+    <t>DummyTest665</t>
+  </si>
+  <si>
+    <t>DummyvTestUser557@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -678,22 +678,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/data/ContactListTestData.xlsx
+++ b/target/test-classes/data/ContactListTestData.xlsx
@@ -77,7 +77,7 @@
     <t>DummyTest665</t>
   </si>
   <si>
-    <t>DummyvTestUser557@gmail.com</t>
+    <t>DummyvTestUser568@gmail.com</t>
   </si>
 </sst>
 </file>
